--- a/pizza_order_dashboard.xlsx
+++ b/pizza_order_dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c54a924b2259718/Datasets/case_studies/Pizza Sales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c54a924b2259718/Documents/GitHub/proj-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:40009_{5743CDFB-773A-4329-82DF-FD2719FB4A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D4630F5-6B17-4CEC-86D4-D353C1B679AE}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:40009_{5743CDFB-773A-4329-82DF-FD2719FB4A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EBE5A61-C250-4CA9-A9CE-B8992710E33E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="217">
   <si>
     <t>pizza_id</t>
   </si>
@@ -1641,7 +1641,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,13 +1685,13 @@
         <v>210</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
         <v>211</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
         <v>212</v>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="H4" s="3" cm="1">
         <f t="array" ref="H4">IF(OR(ISBLANK(D4),ISBLANK(F4)),"-",_xlfn.XLOOKUP(D4&amp;F4,pizza_names&amp;pizza_sizes,pizza_prices,"size not available!",0))</f>
-        <v>11.75</v>
+        <v>12.25</v>
       </c>
       <c r="I4" t="s">
         <v>214</v>
@@ -1717,17 +1717,23 @@
       </c>
       <c r="M4" s="3">
         <f>SUMPRODUCT(H4:H8,J4:J8)</f>
-        <v>23.5</v>
+        <v>44.75</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="3" t="str" cm="1">
+      <c r="D5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" cm="1">
         <f t="array" ref="H5">IF(OR(ISBLANK(D5),ISBLANK(F5)),"-",_xlfn.XLOOKUP(D5&amp;F5,pizza_names&amp;pizza_sizes,pizza_prices,"size not available!",0))</f>
-        <v>-</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>20.25</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D6" s="4"/>
@@ -4335,8 +4341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F3DC7-381D-4AF5-85DE-3E00BB1AE567}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4471,7 +4477,7 @@
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" ref="O8:O16">_xlfn.UNIQUE(_xlfn._xlws.FILTER(B2:B33,C2:C33=pizza_order!B4))</f>
-        <v>The Five Cheese Pizza</v>
+        <v>The Brie Carre Pizza</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -4488,7 +4494,7 @@
         <v>159</v>
       </c>
       <c r="O9" t="str">
-        <v>The Four Cheese Pizza</v>
+        <v>The Calabrese Pizza</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -4505,7 +4511,7 @@
         <v>161</v>
       </c>
       <c r="O10" t="str">
-        <v>The Green Garden Pizza</v>
+        <v>The Italian Supreme Pizza</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -4522,7 +4528,7 @@
         <v>163</v>
       </c>
       <c r="O11" t="str">
-        <v>The Italian Vegetables Pizza</v>
+        <v>The Pepper Salami Pizza</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -4539,7 +4545,7 @@
         <v>165</v>
       </c>
       <c r="O12" t="str">
-        <v>The Mediterranean Pizza</v>
+        <v>The Prosciutto and Arugula Pizza</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -4556,7 +4562,7 @@
         <v>167</v>
       </c>
       <c r="O13" t="str">
-        <v>The Mexicana Pizza</v>
+        <v>The Sicilian Pizza</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -4573,7 +4579,7 @@
         <v>169</v>
       </c>
       <c r="O14" t="str">
-        <v>The Spinach Pesto Pizza</v>
+        <v>The Soppressata Pizza</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -4590,7 +4596,7 @@
         <v>171</v>
       </c>
       <c r="O15" t="str">
-        <v>The Spinach and Feta Pizza</v>
+        <v>The Spicy Italian Pizza</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -4607,7 +4613,7 @@
         <v>174</v>
       </c>
       <c r="O16" t="str">
-        <v>The Vegetables + Vegetables Pizza</v>
+        <v>The Spinach Supreme Pizza</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
